--- a/va_facility_data_2025-02-20/Cabrillo VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Cabrillo%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Cabrillo VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Cabrillo%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Ra19db0139de7424490e085223a1d2cc5"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R292bcf67e5c04226bafcea99404179d2"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rfb30a75513a043ab9c88081dc3038d90"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rd9d98acd26024676aacdc62bc4d887b6"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R326474cad5824a2da23641ed341d2f5d"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rf9891412e04a4f26b0c7972715303aff"/>
   </x:sheets>
 </x:workbook>
 </file>
